--- a/writing/Table4_variation.xlsx
+++ b/writing/Table4_variation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moin2\OneDrive\Documents\Horsenettle\writing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E5B272-2939-4BC5-9EAF-449A598A641A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D819A12D-CD0E-4CA4-91E2-B96107DA7C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12564" yWindow="2568" windowWidth="17280" windowHeight="8964" xr2:uid="{37135A3D-A90A-4975-9555-C40C8AF410EB}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{37135A3D-A90A-4975-9555-C40C8AF410EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>Variable</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>Cell Membrane Stability (Cold)</t>
-  </si>
-  <si>
-    <t>South</t>
   </si>
   <si>
     <t>Chlorophyll Fluorescence (Heat)</t>
@@ -114,7 +111,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -362,6 +359,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -370,39 +400,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -721,7 +718,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -736,24 +733,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="20"/>
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -765,14 +762,14 @@
       <c r="D2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="19">
-        <v>0.85270000000000001</v>
+      <c r="E2" s="16">
+        <v>0.89610000000000001</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -782,50 +779,50 @@
       <c r="D3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="19">
-        <v>0.41570000000000001</v>
+      <c r="E3" s="16">
+        <v>0.13120000000000001</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="22">
-        <v>1.6780000000000001E-4</v>
+        <v>10</v>
+      </c>
+      <c r="E4" s="19">
+        <v>2.4830000000000002E-4</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="22">
-        <v>9.2639999999999997E-4</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="16">
+        <v>5.67E-2</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -833,16 +830,16 @@
       <c r="D6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="19">
-        <v>0.5413</v>
+      <c r="E6" s="16">
+        <v>0.44409999999999999</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
@@ -850,35 +847,35 @@
       <c r="D7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="19">
-        <v>0.55220000000000002</v>
+      <c r="E7" s="16">
+        <v>0.60189999999999999</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="20">
+      <c r="C8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="17">
         <v>0.51500000000000001</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
@@ -886,16 +883,16 @@
       <c r="D9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="16">
         <v>0.97170000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
@@ -903,16 +900,16 @@
       <c r="D10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>23</v>
+      <c r="E10" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
@@ -920,16 +917,16 @@
       <c r="D11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="16">
         <v>0.1065</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
@@ -937,16 +934,16 @@
       <c r="D12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="16">
         <v>0.5323</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>5</v>
@@ -954,7 +951,7 @@
       <c r="D13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="18">
         <v>0.48649999999999999</v>
       </c>
       <c r="F13" s="12"/>
